--- a/Metodo Segundo Parcial/Metodos de Ecu Diferenciales.xlsx
+++ b/Metodo Segundo Parcial/Metodos de Ecu Diferenciales.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Analisis Numerico Git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Analisis Numerico Git\Metodo Segundo Parcial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3464392-D4C8-4F96-9146-05BEF32BF2BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C61C6F3-7A63-4D4D-84A1-BDF5EEE4E4BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metodo de Euler" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
   <si>
     <t>i</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>FALTAN ESTOS METODOS PERO COMO DIJO QUE NO VAN MUCHO NO ME HAGO PROBLEMA</t>
+  </si>
+  <si>
+    <t>//PARA EL GRAFICO FIJARSE QUE DATOS TIENE</t>
   </si>
 </sst>
 </file>
@@ -295,7 +298,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -328,7 +331,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -360,7 +363,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
@@ -383,6 +386,5682 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.1529648841288197E-2"/>
+          <c:y val="0.18148015728385608"/>
+          <c:w val="0.88230921371795346"/>
+          <c:h val="0.70501147728314717"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Metodo Euler</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Metodo de Euler'!$G$3:$G$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Metodo de Euler'!$H$3:$H$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0083287067674958</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.025263358528302</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0511251056340272</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0862816267859214</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1311500152107525</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1861999546695041</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2519572069656388</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.3290074345478522</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.4180003838848485</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.5196544575398527</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.6347617053045811</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.764193267381664</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.9089053054477367</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.0699454605046501</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.2484598797530726</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.4457008583223474</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.6630351455857517</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.9019529700061195</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.1640778410200294</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.4511771914085392</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.7651739289503094</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.1081589719430527</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.4824048494485655</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.8903804539052125</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.3347670411030172</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.8184755804775019</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.3446655672999723</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.9167654176792519</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.5384945774026235</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.2138874865966525</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9.947319554051731</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>10.743535307903453</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>11.607678903281641</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>12.545327182612949</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>13.562525500592008</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>14.665826543523627</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>15.862332391897722</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>17.159740095812111</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>18.566391055339047</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CDEA-4E8C-BF9D-9AA9748D13F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="536769216"/>
+        <c:axId val="536771136"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="536769216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="536771136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="536771136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="536769216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Metodo Heun</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Metodo de Heun'!$B$4:$B$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Metodo de Heun'!$E$4:$E$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0179999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0710000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1120000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1619999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2229999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2949999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.379</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.4750000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.5840000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.7069999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.8450000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.9990000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.3580000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.5670000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.7959999999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.048</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.3239999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.6260000000000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.9560000000000004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.3170000000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.71</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.1379999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.6040000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.1109999999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.6630000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.2629999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.9149999999999991</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.6219999999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10.391</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>11.225</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>12.13</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>13.112</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>14.177</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>15.332000000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>16.585000000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>17.943000000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>19.286999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C2FA-474C-9407-BB2238A341EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="741916960"/>
+        <c:axId val="741904000"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="741916960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="741904000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="741904000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="741916960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Metodo de Runge-Kuta Orden 2'!$E$4:$E$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Metodo de Runge-Kuta Orden 2'!$F$4:$F$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0041643533837479</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0165930204204412</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.037588334563126</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0674966261102381</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1067109692753854</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1556742027708156</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2148822445047056</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2848877228144135</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.3663039486263906</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.459809255061062</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.5661517333010879</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.6861543960286332</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.8207208024274135</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.9708411816554263</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.1375990948429693</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.3221786790778247</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.5258725205270824</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.7500902078364877</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.9963676212689032</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.2663770177210525</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.5619379768220183</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.885029278800368</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.2378017907443057</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.6225924443088244</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.0419393948866125</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.498598459799914</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.995560941236918</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.536072948500772</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.123656343718558</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.762131445532841</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.4556416365360469</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10.208680032379901</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>11.026118383676359</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>11.913238396087177</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>12.875765669468089</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>13.91990647368924</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>15.052387596903607</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>16.280499521695575</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>17.612143205838592</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>19.055880767460259</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AE9D-44FD-B01C-B4F7F1D7B5A0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="741902080"/>
+        <c:axId val="741913120"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="741902080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="741913120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="741913120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="741902080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Metodo de Runge-Kuta Orden 3'!$E$3:$E$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Metodo de Runge-Kuta Orden 3'!$F$3:$F$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0040408181170877</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.016345069452032</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0372143903233946</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0669943942975491</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1060774153582722</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.15490552439491</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2139738395857416</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2838341530736117</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.3650988982977608</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.4584454844715031</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.5646210269934664</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.6844475050650902</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.8188273804747674</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.9687497144165027</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.1352968223567519</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.3196515103672324</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.5231049400256524</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.747065172973997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.9930664505406535</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.2627792685058381</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.5580213121493109</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.880769322197577</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.2331719682196596</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.6175638124440148</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.0364804539252921</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.4926749505229084</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.9891356243119933</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.5291053648833159</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.1161025545589069</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.7539437499154094</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.4467682652340788</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10.199064815656671</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>11.015700390997999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>11.901951545432954</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>12.863538303729754</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>13.906660901440786</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>15.038039594595038</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>16.26495779407766</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>17.595308801158495</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>19.037646443678653</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D76C-44DB-8FAE-EFFA9BB55CC5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="629897264"/>
+        <c:axId val="629892464"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="629897264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="629892464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="629892464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="629897264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Metodo RUnge-Kuta Orden 4'!$E$3:$E$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Metodo RUnge-Kuta Orden 4'!$F$3:$F$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0040416683415501</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0163467569213398</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0372169071277901</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0669977376187258</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.106081587517219</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1549105329267562</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2139796973425057</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.283840878355901</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.365106515016635</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.4584540223418805</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.5646305217606313</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.6844579987660562</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.8188389217364462</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.968762358792854</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.1353106327073155</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.319666557279696</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.5231213022853751</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.7470829380836941</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.9930857152937551</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.2628001396173678</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.5580439069484839</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.8807937693867052</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.2331984087043608</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.6175924002401763</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.0365113571487106</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.4927083524680649</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.9891717246269689</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.5291443808484724</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.1161447224776104</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.7539893266257813</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.446817529751538</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10.19911807095786</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>11.015757965957571</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>11.902013796925697</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>12.863605618911562</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>13.906733700223143</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>15.038118332328903</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>16.265042964463984</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>17.595400939404044</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>19.037746129917405</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-40A9-4675-817F-3963A27D519D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="744046176"/>
+        <c:axId val="744032736"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="744046176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="744032736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="744032736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="744046176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D9A7BD3-6A0B-6388-4EB2-7B68E2686FB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F627B852-50E8-F001-20A0-4BA9FC95ECB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{969CEB8D-998F-EF74-4070-8E80B34D16E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E899AF45-8785-3790-1CB7-5091781B8E54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66DFE027-2A5B-27D5-D240-811C33770BBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -651,7 +6330,7 @@
   <dimension ref="F1:P43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1181,21 +6860,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A5074C3-42E0-484B-9EAC-BF08AA0948D5}">
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:M44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16" t="s">
@@ -1204,7 +6884,7 @@
       <c r="D2" s="17"/>
       <c r="E2" s="18"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>0</v>
       </c>
@@ -1230,7 +6910,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="19">
         <v>0</v>
       </c>
@@ -1249,7 +6929,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="19">
         <v>1</v>
       </c>
@@ -1269,7 +6949,7 @@
         <v>2.0049999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="19">
         <v>2</v>
       </c>
@@ -1289,7 +6969,7 @@
         <v>2.0179999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
         <v>3</v>
       </c>
@@ -1309,7 +6989,7 @@
         <v>2.04</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="19">
         <v>4</v>
       </c>
@@ -1328,8 +7008,11 @@
         <f t="shared" si="1"/>
         <v>2.0710000000000002</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="19">
         <v>5</v>
       </c>
@@ -1349,7 +7032,7 @@
         <v>2.1120000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="19">
         <v>6</v>
       </c>
@@ -1369,7 +7052,7 @@
         <v>2.1619999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="19">
         <v>7</v>
       </c>
@@ -1389,7 +7072,7 @@
         <v>2.2229999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="19">
         <v>8</v>
       </c>
@@ -1409,7 +7092,7 @@
         <v>2.2949999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="19">
         <v>9</v>
       </c>
@@ -1429,7 +7112,7 @@
         <v>2.379</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="19">
         <v>10</v>
       </c>
@@ -1449,7 +7132,7 @@
         <v>2.4750000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="19">
         <v>11</v>
       </c>
@@ -1469,7 +7152,7 @@
         <v>2.5840000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="19">
         <v>12</v>
       </c>
@@ -2051,6 +7734,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2059,7 +7743,7 @@
   <dimension ref="E1:M44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2801,6 +8485,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2809,7 +8494,7 @@
   <dimension ref="E1:N43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2878,7 +8563,7 @@
         <v>2.0040408181170877</v>
       </c>
       <c r="G4" s="5">
-        <f t="shared" ref="G4:G43" si="0">EXP(0.8*E4)-0.5*F4</f>
+        <f t="shared" ref="G4" si="0">EXP(0.8*E4)-0.5*F4</f>
         <v>8.12666586164148E-2</v>
       </c>
       <c r="H4" s="5">
@@ -3711,6 +9396,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3718,8 +9404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{739A85FE-D60C-48BE-8832-92D27CAAF209}">
   <dimension ref="E1:P43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3796,7 +9482,7 @@
         <v>2.0040416683415501</v>
       </c>
       <c r="G4" s="5">
-        <f t="shared" ref="G4:G43" si="0">EXP(0.8*E4)-0.5*F4</f>
+        <f t="shared" ref="G4" si="0">EXP(0.8*E4)-0.5*F4</f>
         <v>8.1266233504183605E-2</v>
       </c>
       <c r="H4" s="5">
@@ -4789,6 +10475,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4796,7 +10483,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44105454-2945-4042-9D01-28470E5E4353}">
   <dimension ref="F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>

--- a/Metodo Segundo Parcial/Metodos de Ecu Diferenciales.xlsx
+++ b/Metodo Segundo Parcial/Metodos de Ecu Diferenciales.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Analisis Numerico Git\Metodo Segundo Parcial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C61C6F3-7A63-4D4D-84A1-BDF5EEE4E4BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{938823B4-48B2-4E76-A1A8-D6C9D61866C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metodo de Euler" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Metodos Predictores-Correctores" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
   <si>
     <t>i</t>
   </si>
@@ -96,6 +97,18 @@
   </si>
   <si>
     <t>//PARA EL GRAFICO FIJARSE QUE DATOS TIENE</t>
+  </si>
+  <si>
+    <t>Tenerlo claro siosi</t>
+  </si>
+  <si>
+    <t>Se toma mucho</t>
+  </si>
+  <si>
+    <t>AL PARCIAL NO ENTRA</t>
+  </si>
+  <si>
+    <t>EN EL FINAL SI ENTRA TEORICO</t>
   </si>
 </sst>
 </file>
@@ -6327,22 +6340,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="F1:P43"/>
+  <dimension ref="B1:P43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="6:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F1" s="15"/>
       <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="18"/>
     </row>
-    <row r="2" spans="6:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
       <c r="F2" s="4" t="s">
         <v>0</v>
       </c>
@@ -6361,7 +6377,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="6:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F3" s="4">
         <v>0</v>
       </c>
@@ -6378,7 +6394,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="F4" s="4">
         <v>1</v>
       </c>
@@ -6390,7 +6406,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="F5" s="4">
         <v>2</v>
       </c>
@@ -6402,7 +6418,7 @@
         <v>2.0083287067674958</v>
       </c>
     </row>
-    <row r="6" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="F6" s="4">
         <v>3</v>
       </c>
@@ -6414,7 +6430,7 @@
         <v>2.025263358528302</v>
       </c>
     </row>
-    <row r="7" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="F7" s="4">
         <v>4</v>
       </c>
@@ -6426,7 +6442,7 @@
         <v>2.0511251056340272</v>
       </c>
     </row>
-    <row r="8" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="F8" s="4">
         <v>5</v>
       </c>
@@ -6438,7 +6454,7 @@
         <v>2.0862816267859214</v>
       </c>
     </row>
-    <row r="9" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="F9" s="4">
         <v>6</v>
       </c>
@@ -6450,7 +6466,7 @@
         <v>2.1311500152107525</v>
       </c>
     </row>
-    <row r="10" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="F10" s="4">
         <v>7</v>
       </c>
@@ -6462,7 +6478,7 @@
         <v>2.1861999546695041</v>
       </c>
     </row>
-    <row r="11" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="F11" s="4">
         <v>8</v>
       </c>
@@ -6474,7 +6490,7 @@
         <v>2.2519572069656388</v>
       </c>
     </row>
-    <row r="12" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="F12" s="4">
         <v>9</v>
       </c>
@@ -6486,7 +6502,7 @@
         <v>2.3290074345478522</v>
       </c>
     </row>
-    <row r="13" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="F13" s="4">
         <v>10</v>
       </c>
@@ -6498,7 +6514,7 @@
         <v>2.4180003838848485</v>
       </c>
     </row>
-    <row r="14" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="F14" s="4">
         <v>11</v>
       </c>
@@ -6510,7 +6526,7 @@
         <v>2.5196544575398527</v>
       </c>
     </row>
-    <row r="15" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="F15" s="4">
         <v>12</v>
       </c>
@@ -6522,7 +6538,7 @@
         <v>2.6347617053045811</v>
       </c>
     </row>
-    <row r="16" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="F16" s="4">
         <v>13</v>
       </c>
@@ -7808,11 +7824,11 @@
         <v>2.0041643533837479</v>
       </c>
       <c r="G5" s="5">
-        <f t="shared" ref="G5" si="0">EXP(0.8*E5)-0.5*F5</f>
+        <f>EXP(0.8*E5)-0.5*F5</f>
         <v>8.1204890983084699E-2</v>
       </c>
       <c r="H5" s="6">
-        <f t="shared" ref="H5:H44" si="1">EXP(0.8*(E5+K$3))-0.5*(F5+K$3*G5)</f>
+        <f t="shared" ref="H5:H44" si="0">EXP(0.8*(E5+K$3))-0.5*(F5+K$3*G5)</f>
         <v>0.16736844975078213</v>
       </c>
       <c r="J5" s="12" t="s">
@@ -7825,15 +7841,15 @@
         <v>0.2</v>
       </c>
       <c r="F6" s="5">
-        <f t="shared" ref="F6:F44" si="2">F5+(0.5*G5+0.5*H5)*K$3</f>
+        <f t="shared" ref="F6:F44" si="1">F5+(0.5*G5+0.5*H5)*K$3</f>
         <v>2.0165930204204412</v>
       </c>
       <c r="G6" s="5">
-        <f t="shared" ref="G6:G44" si="3">EXP(0.8*E6)-0.5*F6</f>
+        <f t="shared" ref="G6:G44" si="2">EXP(0.8*E6)-0.5*F6</f>
         <v>0.16521436078158969</v>
       </c>
       <c r="H6" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.25469192207210467</v>
       </c>
     </row>
@@ -7842,15 +7858,15 @@
         <v>0.3</v>
       </c>
       <c r="F7" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.037588334563126</v>
       </c>
       <c r="G7" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.25245498303984171</v>
       </c>
       <c r="H7" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.34571084790240203</v>
       </c>
     </row>
@@ -7859,15 +7875,15 @@
         <v>0.4</v>
       </c>
       <c r="F8" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.0674966261102381</v>
       </c>
       <c r="G8" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.34337945128083813</v>
       </c>
       <c r="H8" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.44090741202210948</v>
       </c>
     </row>
@@ -7876,15 +7892,15 @@
         <v>0.5</v>
       </c>
       <c r="F9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.1067109692753854</v>
       </c>
       <c r="G9" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.43846921300357766</v>
       </c>
       <c r="H9" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.54079545690502195</v>
       </c>
     </row>
@@ -7893,15 +7909,15 @@
         <v>0.6</v>
       </c>
       <c r="F10" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.1556742027708156</v>
       </c>
       <c r="G10" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.53823730080748566</v>
       </c>
       <c r="H10" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.64592353387031887</v>
       </c>
     </row>
@@ -7910,15 +7926,15 @@
         <v>0.7</v>
       </c>
       <c r="F11" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.2148822445047056</v>
       </c>
       <c r="G11" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.64323137804374819</v>
       </c>
       <c r="H11" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.75687818815041119</v>
       </c>
     </row>
@@ -7927,15 +7943,15 @@
         <v>0.8</v>
       </c>
       <c r="F12" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.2848877228144135</v>
       </c>
       <c r="G12" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.75403701789774491</v>
       </c>
       <c r="H12" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.87428749834179409</v>
       </c>
     </row>
@@ -7944,15 +7960,15 @@
         <v>0.9</v>
       </c>
       <c r="F13" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.3663039486263906</v>
       </c>
       <c r="G13" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.87128123633069277</v>
       </c>
       <c r="H13" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.99882489236273786</v>
       </c>
     </row>
@@ -7961,15 +7977,15 @@
         <v>1</v>
       </c>
       <c r="F14" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.459809255061062</v>
       </c>
       <c r="G14" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.99563630096193689</v>
       </c>
       <c r="H14" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.1312132638385823</v>
       </c>
     </row>
@@ -7978,15 +7994,15 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="F15" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.5661517333010879</v>
       </c>
       <c r="G15" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.1278238397666662</v>
       </c>
       <c r="H15" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.272229414784241</v>
       </c>
     </row>
@@ -7995,15 +8011,15 @@
         <v>1.2</v>
       </c>
       <c r="F16" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.6861543960286332</v>
       </c>
       <c r="G16" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.2686192754088013</v>
       </c>
       <c r="H16" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.4227088525668032</v>
       </c>
     </row>
@@ -8012,15 +8028,15 @@
         <v>1.3</v>
       </c>
       <c r="F17" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.8207208024274135</v>
       </c>
       <c r="G17" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.4188566131378531</v>
       </c>
       <c r="H17" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.583550971422403</v>
       </c>
     </row>
@@ -8029,15 +8045,15 @@
         <v>1.4</v>
       </c>
       <c r="F18" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.9708411816554263</v>
       </c>
       <c r="G18" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.5794336124652884</v>
       </c>
       <c r="H18" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.7557246512855706</v>
       </c>
     </row>
@@ -8046,15 +8062,15 @@
         <v>1.5</v>
       </c>
       <c r="F19" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.1375990948429693</v>
       </c>
       <c r="G19" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.7513173753150635</v>
       </c>
       <c r="H19" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.9402743093820447</v>
       </c>
     </row>
@@ -8063,15 +8079,15 @@
         <v>1.6</v>
       </c>
       <c r="F20" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.3221786790778247</v>
       </c>
       <c r="G20" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.9355503860303702</v>
       </c>
       <c r="H20" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.138326442954785</v>
       </c>
     </row>
@@ -8080,15 +8096,15 @@
         <v>1.7</v>
       </c>
       <c r="F21" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.5258725205270824</v>
       </c>
       <c r="G21" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.1332570415316736</v>
       </c>
       <c r="H21" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.3510967046564284</v>
       </c>
     </row>
@@ -8097,15 +8113,15 @@
         <v>1.8</v>
       </c>
       <c r="F22" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.7500902078364877</v>
       </c>
       <c r="G22" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.3456507130783093</v>
       </c>
       <c r="H22" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.5798975555700014</v>
       </c>
     </row>
@@ -8114,15 +8130,15 @@
         <v>1.9</v>
       </c>
       <c r="F23" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.9963676212689032</v>
       </c>
       <c r="G23" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.5740413845077073</v>
       </c>
       <c r="H23" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.8261465445352778</v>
       </c>
     </row>
@@ -8131,15 +8147,15 @@
         <v>2</v>
       </c>
       <c r="F24" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.2663770177210525</v>
       </c>
       <c r="G24" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.8198439155345887</v>
       </c>
       <c r="H24" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.0913752664847198</v>
       </c>
     </row>
@@ -8148,15 +8164,15 @@
         <v>2.1</v>
       </c>
       <c r="F25" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.5619379768220183</v>
       </c>
       <c r="G25" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3.0845869827109662</v>
       </c>
       <c r="H25" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.3772390568560322</v>
       </c>
     </row>
@@ -8165,15 +8181,15 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="F26" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.885029278800368</v>
       </c>
       <c r="G26" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3.3699227550024058</v>
       </c>
       <c r="H26" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.6855274838763545</v>
       </c>
     </row>
@@ -8182,15 +8198,15 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="F27" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.2378017907443057</v>
       </c>
       <c r="G27" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3.6776373656545034</v>
       </c>
       <c r="H27" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4.0181757056358709</v>
       </c>
     </row>
@@ -8199,15 +8215,15 @@
         <v>2.4</v>
       </c>
       <c r="F28" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.6225924443088244</v>
       </c>
       <c r="G28" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4.0096622471363368</v>
       </c>
       <c r="H28" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4.3772767644194213</v>
       </c>
     </row>
@@ -8216,15 +8232,15 @@
         <v>2.5</v>
       </c>
       <c r="F29" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.0419393948866125</v>
       </c>
       <c r="G29" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4.3680864014873446</v>
       </c>
       <c r="H29" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4.7650948967786801</v>
       </c>
     </row>
@@ -8233,15 +8249,15 @@
         <v>2.6</v>
       </c>
       <c r="F30" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.498598459799914</v>
       </c>
       <c r="G30" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4.755169684396396</v>
       </c>
       <c r="H30" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.1840799443436794</v>
       </c>
     </row>
@@ -8250,15 +8266,15 @@
         <v>2.7</v>
       </c>
       <c r="F31" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.995560941236918</v>
       </c>
       <c r="G31" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.1733571878449975</v>
       </c>
       <c r="H31" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.6368829574320749</v>
       </c>
     </row>
@@ -8267,15 +8283,15 @@
         <v>2.8</v>
       </c>
       <c r="F32" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7.536072948500772</v>
       </c>
       <c r="G32" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.6252948131923945</v>
       </c>
       <c r="H32" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.1263730911633267</v>
       </c>
     </row>
@@ -8284,15 +8300,15 @@
         <v>2.9</v>
       </c>
       <c r="F33" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8.123656343718558</v>
       </c>
       <c r="G33" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.1138461342140538</v>
       </c>
       <c r="H33" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.6556559020716231</v>
       </c>
     </row>
@@ -8301,15 +8317,15 @@
         <v>3</v>
       </c>
       <c r="F34" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8.762131445532841</v>
       </c>
       <c r="G34" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.6421106578751843</v>
       </c>
       <c r="H34" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.2280931621889284</v>
       </c>
     </row>
@@ -8318,15 +8334,15 @@
         <v>3.1</v>
       </c>
       <c r="F35" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9.4556416365360469</v>
       </c>
       <c r="G35" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7.2134435995810851</v>
       </c>
       <c r="H35" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.8473243172960059</v>
       </c>
     </row>
@@ -8335,15 +8351,15 @@
         <v>3.2</v>
       </c>
       <c r="F36" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10.208680032379901</v>
       </c>
       <c r="G36" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7.831477299353133</v>
       </c>
       <c r="H36" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8.5172897265760135</v>
       </c>
     </row>
@@ -8352,15 +8368,15 @@
         <v>3.3</v>
       </c>
       <c r="F37" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>11.026118383676359</v>
       </c>
       <c r="G37" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>8.500144415895436</v>
       </c>
       <c r="H37" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.2422558323209483</v>
       </c>
     </row>
@@ -8369,15 +8385,15 @@
         <v>3.4</v>
       </c>
       <c r="F38" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>11.913238396087177</v>
       </c>
       <c r="G38" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.2237030469103107</v>
       </c>
       <c r="H38" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10.026842420707951</v>
       </c>
     </row>
@@ -8386,15 +8402,15 @@
         <v>3.5</v>
       </c>
       <c r="F39" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>12.875765669468089</v>
       </c>
       <c r="G39" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10.006763936363011</v>
       </c>
       <c r="H39" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10.876052148060008</v>
       </c>
     </row>
@@ -8403,15 +8419,15 @@
         <v>3.6</v>
       </c>
       <c r="F40" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>13.91990647368924</v>
       </c>
       <c r="G40" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10.854319942767585</v>
       </c>
       <c r="H40" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11.795302521519769</v>
       </c>
     </row>
@@ -8420,15 +8436,15 @@
         <v>3.7</v>
       </c>
       <c r="F41" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>15.052387596903607</v>
       </c>
       <c r="G41" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>11.771777957050965</v>
       </c>
       <c r="H41" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>12.790460538788414</v>
       </c>
     </row>
@@ -8437,15 +8453,15 @@
         <v>3.8</v>
       </c>
       <c r="F42" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>16.280499521695575</v>
       </c>
       <c r="G42" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>12.764993474244971</v>
       </c>
       <c r="H42" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>13.867880208615361</v>
       </c>
     </row>
@@ -8454,15 +8470,15 @@
         <v>3.9</v>
       </c>
       <c r="F43" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17.612143205838592</v>
       </c>
       <c r="G43" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>13.840308040256101</v>
       </c>
       <c r="H43" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>15.034443192177251</v>
       </c>
     </row>
@@ -8471,15 +8487,15 @@
         <v>4</v>
       </c>
       <c r="F44" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>19.055880767460259</v>
       </c>
       <c r="G44" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>15.004589813379223</v>
       </c>
       <c r="H44" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>16.297602825474865</v>
       </c>
     </row>
@@ -8563,15 +8579,15 @@
         <v>2.0040408181170877</v>
       </c>
       <c r="G4" s="5">
-        <f t="shared" ref="G4" si="0">EXP(0.8*E4)-0.5*F4</f>
+        <f>EXP(0.8*E4)-0.5*F4</f>
         <v>8.12666586164148E-2</v>
       </c>
       <c r="H4" s="5">
-        <f t="shared" ref="H4:H43" si="1">EXP(0.8*(E4+0.5*L$3))-0.5*(F4+0.5*L$3*G4)</f>
+        <f t="shared" ref="H4:H43" si="0">EXP(0.8*(E4+0.5*L$3))-0.5*(F4+0.5*L$3*G4)</f>
         <v>0.12344477605542159</v>
       </c>
       <c r="I4" s="30">
-        <f t="shared" ref="I4:I43" si="2">EXP(0.8*(E4+L$3))-(0.5*(F4-L$3*G4+2*L$3*H4))</f>
+        <f t="shared" ref="I4:I43" si="1">EXP(0.8*(E4+L$3))-(0.5*(F4-L$3*G4+2*L$3*H4))</f>
         <v>0.16320931725854493</v>
       </c>
     </row>
@@ -8580,19 +8596,19 @@
         <v>0.2</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" ref="F5:F43" si="3">F4+((L$3/6)*(G4+4*H4+I4))</f>
+        <f t="shared" ref="F5:F43" si="2">F4+((L$3/6)*(G4+4*H4+I4))</f>
         <v>2.016345069452032</v>
       </c>
       <c r="G5" s="5">
-        <f t="shared" ref="G5:G43" si="4">EXP(0.8*E5)-0.5*F5</f>
+        <f t="shared" ref="G5:G43" si="3">EXP(0.8*E5)-0.5*F5</f>
         <v>0.16533833626579431</v>
       </c>
       <c r="H5" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.20909676502750907</v>
       </c>
       <c r="I5" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.25043385590592759</v>
       </c>
     </row>
@@ -8601,19 +8617,19 @@
         <v>0.3</v>
       </c>
       <c r="F6" s="5">
+        <f t="shared" si="2"/>
+        <v>2.0372143903233946</v>
+      </c>
+      <c r="G6" s="5">
         <f t="shared" si="3"/>
-        <v>2.0372143903233946</v>
-      </c>
-      <c r="G6" s="5">
-        <f t="shared" si="4"/>
         <v>0.25264195515970744</v>
       </c>
       <c r="H6" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.29820656829674697</v>
       </c>
       <c r="I6" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.34133201010257075</v>
       </c>
     </row>
@@ -8622,19 +8638,19 @@
         <v>0.4</v>
       </c>
       <c r="F7" s="5">
+        <f t="shared" si="2"/>
+        <v>2.0669943942975491</v>
+      </c>
+      <c r="G7" s="5">
         <f t="shared" si="3"/>
-        <v>2.0669943942975491</v>
-      </c>
-      <c r="G7" s="5">
-        <f t="shared" si="4"/>
         <v>0.34363056718718266</v>
       </c>
       <c r="H7" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.39124145323188619</v>
       </c>
       <c r="I7" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.43638488352866633</v>
       </c>
     </row>
@@ -8643,19 +8659,19 @@
         <v>0.5</v>
       </c>
       <c r="F8" s="5">
+        <f t="shared" si="2"/>
+        <v>2.1060774153582722</v>
+      </c>
+      <c r="G8" s="5">
         <f t="shared" si="3"/>
-        <v>2.1060774153582722</v>
-      </c>
-      <c r="G8" s="5">
-        <f t="shared" si="4"/>
         <v>0.43878598996213425</v>
       </c>
       <c r="H8" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.48869886108314664</v>
       </c>
       <c r="I8" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.53610510790354926</v>
       </c>
     </row>
@@ -8664,19 +8680,19 @@
         <v>0.6</v>
       </c>
       <c r="F9" s="5">
+        <f t="shared" si="2"/>
+        <v>2.15490552439491</v>
+      </c>
+      <c r="G9" s="5">
         <f t="shared" si="3"/>
-        <v>2.15490552439491</v>
-      </c>
-      <c r="G9" s="5">
-        <f t="shared" si="4"/>
         <v>0.53862163999543844</v>
       </c>
       <c r="H9" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.59110934650154534</v>
       </c>
       <c r="I9" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.64103988544826329</v>
       </c>
     </row>
@@ -8685,19 +8701,19 @@
         <v>0.7</v>
       </c>
       <c r="F10" s="5">
+        <f t="shared" si="2"/>
+        <v>2.2139738395857416</v>
+      </c>
+      <c r="G10" s="5">
         <f t="shared" si="3"/>
-        <v>2.2139738395857416</v>
-      </c>
-      <c r="G10" s="5">
-        <f t="shared" si="4"/>
         <v>0.64368558050323021</v>
       </c>
       <c r="H10" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.69903974108505751</v>
       </c>
       <c r="I10" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.75177426442873641</v>
       </c>
     </row>
@@ -8706,19 +8722,19 @@
         <v>0.8</v>
       </c>
       <c r="F11" s="5">
+        <f t="shared" si="2"/>
+        <v>2.2838341530736117</v>
+      </c>
+      <c r="G11" s="5">
         <f t="shared" si="3"/>
-        <v>2.2838341530736117</v>
-      </c>
-      <c r="G11" s="5">
-        <f t="shared" si="4"/>
         <v>0.75456380276814583</v>
       </c>
       <c r="H11" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.81309656062443847</v>
       </c>
       <c r="I11" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.86893466818304566</v>
       </c>
     </row>
@@ -8727,19 +8743,19 @@
         <v>0.9</v>
       </c>
       <c r="F12" s="5">
+        <f t="shared" si="2"/>
+        <v>2.3650988982977608</v>
+      </c>
+      <c r="G12" s="5">
         <f t="shared" si="3"/>
-        <v>2.3650988982977608</v>
-      </c>
-      <c r="G12" s="5">
-        <f t="shared" si="4"/>
         <v>0.87188376149500768</v>
       </c>
       <c r="H12" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.9339296773105632</v>
       </c>
       <c r="I12" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.99319269968728152</v>
       </c>
     </row>
@@ -8748,19 +8764,19 @@
         <v>1</v>
       </c>
       <c r="F13" s="5">
+        <f t="shared" si="2"/>
+        <v>2.4584454844715031</v>
+      </c>
+      <c r="G13" s="5">
         <f t="shared" si="3"/>
-        <v>2.4584454844715031</v>
-      </c>
-      <c r="G13" s="5">
-        <f t="shared" si="4"/>
         <v>0.99631818625671631</v>
       </c>
       <c r="H13" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.0622362798889224</v>
       </c>
       <c r="I13" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.1252692455054023</v>
       </c>
     </row>
@@ -8769,19 +8785,19 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="F14" s="5">
+        <f t="shared" si="2"/>
+        <v>2.5646210269934664</v>
+      </c>
+      <c r="G14" s="5">
         <f t="shared" si="3"/>
-        <v>2.5646210269934664</v>
-      </c>
-      <c r="G14" s="5">
-        <f t="shared" si="4"/>
         <v>1.128589192920477</v>
       </c>
       <c r="H14" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.1987651466165528</v>
       </c>
       <c r="I14" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.2659389049107537</v>
       </c>
     </row>
@@ -8790,19 +8806,19 @@
         <v>1.2</v>
       </c>
       <c r="F15" s="5">
+        <f t="shared" si="2"/>
+        <v>2.6844475050650902</v>
+      </c>
+      <c r="G15" s="5">
         <f t="shared" si="3"/>
-        <v>2.6844475050650902</v>
-      </c>
-      <c r="G15" s="5">
-        <f t="shared" si="4"/>
         <v>1.2694727208905727</v>
       </c>
       <c r="H15" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.3443212579042356</v>
       </c>
       <c r="I15" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.4160347720731199</v>
       </c>
     </row>
@@ -8811,19 +8827,19 @@
         <v>1.3</v>
       </c>
       <c r="F16" s="5">
+        <f t="shared" si="2"/>
+        <v>2.8188273804747674</v>
+      </c>
+      <c r="G16" s="5">
         <f t="shared" si="3"/>
-        <v>2.8188273804747674</v>
-      </c>
-      <c r="G16" s="5">
-        <f t="shared" si="4"/>
         <v>1.4198033241141761</v>
       </c>
       <c r="H16" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.499770777725286</v>
       </c>
       <c r="I16" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.5764536014887989</v>
       </c>
     </row>
@@ -8832,19 +8848,19 @@
         <v>1.4</v>
       </c>
       <c r="F17" s="5">
+        <f t="shared" si="2"/>
+        <v>2.9687497144165027</v>
+      </c>
+      <c r="G17" s="5">
         <f t="shared" si="3"/>
-        <v>2.9687497144165027</v>
-      </c>
-      <c r="G17" s="5">
-        <f t="shared" si="4"/>
         <v>1.5804793460847502</v>
       </c>
       <c r="H17" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.6660464352558144</v>
       </c>
       <c r="I17" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.7481613893069528</v>
       </c>
     </row>
@@ -8853,19 +8869,19 @@
         <v>1.5</v>
       </c>
       <c r="F18" s="5">
+        <f t="shared" si="2"/>
+        <v>3.1352968223567519</v>
+      </c>
+      <c r="G18" s="5">
         <f t="shared" si="3"/>
-        <v>3.1352968223567519</v>
-      </c>
-      <c r="G18" s="5">
-        <f t="shared" si="4"/>
         <v>1.7524685115581722</v>
       </c>
       <c r="H18" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.8441533407953461</v>
       </c>
       <c r="I18" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.9321994058892806</v>
       </c>
     </row>
@@ -8874,19 +8890,19 @@
         <v>1.6</v>
       </c>
       <c r="F19" s="5">
+        <f t="shared" si="2"/>
+        <v>3.3196515103672324</v>
+      </c>
+      <c r="G19" s="5">
         <f t="shared" si="3"/>
-        <v>3.3196515103672324</v>
-      </c>
-      <c r="G19" s="5">
-        <f t="shared" si="4"/>
         <v>1.9368139703856664</v>
       </c>
       <c r="H19" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.0351752728176056</v>
       </c>
       <c r="I19" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.1296907178491224</v>
       </c>
     </row>
@@ -8895,19 +8911,19 @@
         <v>1.7</v>
       </c>
       <c r="F20" s="5">
+        <f t="shared" si="2"/>
+        <v>3.5231049400256524</v>
+      </c>
+      <c r="G20" s="5">
         <f t="shared" si="3"/>
-        <v>3.5231049400256524</v>
-      </c>
-      <c r="G20" s="5">
-        <f t="shared" si="4"/>
         <v>2.1346408317823888</v>
       </c>
       <c r="H20" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.2402814760372896</v>
       </c>
       <c r="I20" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.3418472409691176</v>
       </c>
     </row>
@@ -8916,19 +8932,19 @@
         <v>1.8</v>
       </c>
       <c r="F21" s="5">
+        <f t="shared" si="2"/>
+        <v>3.747065172973997</v>
+      </c>
+      <c r="G21" s="5">
         <f t="shared" si="3"/>
-        <v>3.747065172973997</v>
-      </c>
-      <c r="G21" s="5">
-        <f t="shared" si="4"/>
         <v>2.3471632305095547</v>
       </c>
       <c r="H21" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.4607340136690206</v>
       </c>
       <c r="I21" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.569977368813738</v>
       </c>
     </row>
@@ -8937,19 +8953,19 @@
         <v>1.9</v>
       </c>
       <c r="F22" s="5">
+        <f t="shared" si="2"/>
+        <v>3.9930664505406535</v>
+      </c>
+      <c r="G22" s="5">
         <f t="shared" si="3"/>
-        <v>3.9930664505406535</v>
-      </c>
-      <c r="G22" s="5">
-        <f t="shared" si="4"/>
         <v>2.5756919698718321</v>
       </c>
       <c r="H22" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.6978957206207315</v>
       </c>
       <c r="I22" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.8154942255563067</v>
       </c>
     </row>
@@ -8958,19 +8974,19 @@
         <v>2</v>
       </c>
       <c r="F23" s="5">
+        <f t="shared" si="2"/>
+        <v>4.2627792685058381</v>
+      </c>
+      <c r="G23" s="5">
         <f t="shared" si="3"/>
-        <v>4.2627792685058381</v>
-      </c>
-      <c r="G23" s="5">
-        <f t="shared" si="4"/>
         <v>2.8216427901421959</v>
       </c>
       <c r="H23" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.9532388082282064</v>
       </c>
       <c r="I23" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.0799245955533454</v>
       </c>
     </row>
@@ -8979,19 +8995,19 @@
         <v>2.1</v>
       </c>
       <c r="F24" s="5">
+        <f t="shared" si="2"/>
+        <v>4.5580213121493109</v>
+      </c>
+      <c r="G24" s="5">
         <f t="shared" si="3"/>
-        <v>4.5580213121493109</v>
-      </c>
-      <c r="G24" s="5">
-        <f t="shared" si="4"/>
         <v>3.0865453150473199</v>
       </c>
       <c r="H24" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.2283541753252152</v>
       </c>
       <c r="I24" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.3649185865477791</v>
       </c>
     </row>
@@ -9000,19 +9016,19 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="F25" s="5">
+        <f t="shared" si="2"/>
+        <v>4.880769322197577</v>
+      </c>
+      <c r="G25" s="5">
         <f t="shared" si="3"/>
-        <v>4.880769322197577</v>
-      </c>
-      <c r="G25" s="5">
-        <f t="shared" si="4"/>
         <v>3.3720527333038013</v>
       </c>
       <c r="H25" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.5249614849815631</v>
       </c>
       <c r="I25" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.6722600880949043</v>
       </c>
     </row>
@@ -9021,19 +9037,19 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="F26" s="5">
+        <f t="shared" si="2"/>
+        <v>5.2331719682196596</v>
+      </c>
+      <c r="G26" s="5">
         <f t="shared" si="3"/>
-        <v>5.2331719682196596</v>
-      </c>
-      <c r="G26" s="5">
-        <f t="shared" si="4"/>
         <v>3.6799522769168265</v>
       </c>
       <c r="H26" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.8449200711583975</v>
       </c>
       <c r="I26" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.0038780919109218</v>
       </c>
     </row>
@@ -9042,19 +9058,19 @@
         <v>2.4</v>
       </c>
       <c r="F27" s="5">
+        <f t="shared" si="2"/>
+        <v>5.6175638124440148</v>
+      </c>
+      <c r="G27" s="5">
         <f t="shared" si="3"/>
-        <v>5.6175638124440148</v>
-      </c>
-      <c r="G27" s="5">
-        <f t="shared" si="4"/>
         <v>4.012176563068742</v>
       </c>
       <c r="H27" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4.1902407448579062</v>
       </c>
       <c r="I27" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.3618589463762891</v>
       </c>
     </row>
@@ -9063,19 +9079,19 @@
         <v>2.5</v>
       </c>
       <c r="F28" s="5">
+        <f t="shared" si="2"/>
+        <v>6.0364804539252921</v>
+      </c>
+      <c r="G28" s="5">
         <f t="shared" si="3"/>
-        <v>6.0364804539252921</v>
-      </c>
-      <c r="G28" s="5">
-        <f t="shared" si="4"/>
         <v>4.3708158719680039</v>
       </c>
       <c r="H28" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4.5630985751171522</v>
       </c>
       <c r="I28" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.7484596234203922</v>
       </c>
     </row>
@@ -9084,19 +9100,19 @@
         <v>2.6</v>
       </c>
       <c r="F29" s="5">
+        <f t="shared" si="2"/>
+        <v>6.4926749505229084</v>
+      </c>
+      <c r="G29" s="5">
         <f t="shared" si="3"/>
-        <v>6.4926749505229084</v>
-      </c>
-      <c r="G29" s="5">
-        <f t="shared" si="4"/>
         <v>4.7581314390348997</v>
       </c>
       <c r="H29" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4.9658467264503656</v>
       </c>
       <c r="I29" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.1661220825087106</v>
       </c>
     </row>
@@ -9105,19 +9121,19 @@
         <v>2.7</v>
       </c>
       <c r="F30" s="5">
+        <f t="shared" si="2"/>
+        <v>6.9891356243119933</v>
+      </c>
+      <c r="G30" s="5">
         <f t="shared" si="3"/>
-        <v>6.9891356243119933</v>
-      </c>
-      <c r="G30" s="5">
-        <f t="shared" si="4"/>
         <v>5.1765698463074594</v>
       </c>
       <c r="H30" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.4010314411204394</v>
       </c>
       <c r="I30" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.6174888234901168</v>
       </c>
     </row>
@@ -9126,19 +9142,19 @@
         <v>2.8</v>
       </c>
       <c r="F31" s="5">
+        <f t="shared" si="2"/>
+        <v>7.5291053648833159</v>
+      </c>
+      <c r="G31" s="5">
         <f t="shared" si="3"/>
-        <v>7.5291053648833159</v>
-      </c>
-      <c r="G31" s="5">
-        <f t="shared" si="4"/>
         <v>5.6287786050011226</v>
       </c>
       <c r="H31" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.8714082619622179</v>
       </c>
       <c r="I31" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.1054197276855096</v>
       </c>
     </row>
@@ -9147,19 +9163,19 @@
         <v>2.9</v>
       </c>
       <c r="F32" s="5">
+        <f t="shared" si="2"/>
+        <v>8.1161025545589069</v>
+      </c>
+      <c r="G32" s="5">
         <f t="shared" si="3"/>
-        <v>8.1161025545589069</v>
-      </c>
-      <c r="G32" s="5">
-        <f t="shared" si="4"/>
         <v>6.1176230287938793</v>
       </c>
       <c r="H32" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.3799595994344793</v>
       </c>
       <c r="I32" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.6330102948583978</v>
       </c>
     </row>
@@ -9168,19 +9184,19 @@
         <v>3</v>
       </c>
       <c r="F33" s="5">
+        <f t="shared" si="2"/>
+        <v>8.7539437499154094</v>
+      </c>
+      <c r="G33" s="5">
         <f t="shared" si="3"/>
-        <v>8.7539437499154094</v>
-      </c>
-      <c r="G33" s="5">
-        <f t="shared" si="4"/>
         <v>6.6462045056839001</v>
       </c>
       <c r="H33" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.9299137551950309</v>
       </c>
       <c r="I33" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7.2036113926560965</v>
       </c>
     </row>
@@ -9189,19 +9205,19 @@
         <v>3.1</v>
       </c>
       <c r="F34" s="5">
+        <f t="shared" si="2"/>
+        <v>9.4467682652340788</v>
+      </c>
+      <c r="G34" s="5">
         <f t="shared" si="3"/>
-        <v>9.4467682652340788</v>
-      </c>
-      <c r="G34" s="5">
-        <f t="shared" si="4"/>
         <v>7.2178802852320691</v>
       </c>
       <c r="H34" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.5247655238297027</v>
       </c>
       <c r="I34" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7.8208506448046773</v>
       </c>
     </row>
@@ -9210,19 +9226,19 @@
         <v>3.2</v>
       </c>
       <c r="F35" s="5">
+        <f t="shared" si="2"/>
+        <v>10.199064815656671</v>
+      </c>
+      <c r="G35" s="5">
         <f t="shared" si="3"/>
-        <v>10.199064815656671</v>
-      </c>
-      <c r="G35" s="5">
-        <f t="shared" si="4"/>
         <v>7.8362849077147478</v>
       </c>
       <c r="H35" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8.1682985044804877</v>
       </c>
       <c r="I35" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8.4886555948429745</v>
       </c>
     </row>
@@ -9231,19 +9247,19 @@
         <v>3.3</v>
       </c>
       <c r="F36" s="5">
+        <f t="shared" si="2"/>
+        <v>11.015700390997999</v>
+      </c>
+      <c r="G36" s="5">
         <f t="shared" si="3"/>
-        <v>11.015700390997999</v>
-      </c>
-      <c r="G36" s="5">
-        <f t="shared" si="4"/>
         <v>8.5053534122346157</v>
       </c>
       <c r="H36" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8.8646092650759201</v>
       </c>
       <c r="I36" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9.211278793559039</v>
       </c>
     </row>
@@ -9252,19 +9268,19 @@
         <v>3.4</v>
       </c>
       <c r="F37" s="5">
+        <f t="shared" si="2"/>
+        <v>11.901951545432954</v>
+      </c>
+      <c r="G37" s="5">
         <f t="shared" si="3"/>
-        <v>11.901951545432954</v>
-      </c>
-      <c r="G37" s="5">
-        <f t="shared" si="4"/>
         <v>9.2293464722374221</v>
       </c>
       <c r="H37" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.6181335137379822</v>
       </c>
       <c r="I37" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9.9933249706186515</v>
       </c>
     </row>
@@ -9273,19 +9289,19 @@
         <v>3.5</v>
       </c>
       <c r="F38" s="5">
+        <f t="shared" si="2"/>
+        <v>12.863538303729754</v>
+      </c>
+      <c r="G38" s="5">
         <f t="shared" si="3"/>
-        <v>12.863538303729754</v>
-      </c>
-      <c r="G38" s="5">
-        <f t="shared" si="4"/>
         <v>10.012877619232178</v>
       </c>
       <c r="H38" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10.433674444800193</v>
       </c>
       <c r="I38" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10.839780464228916</v>
       </c>
     </row>
@@ -9294,19 +9310,19 @@
         <v>3.6</v>
       </c>
       <c r="F39" s="5">
+        <f t="shared" si="2"/>
+        <v>13.906660901440786</v>
+      </c>
+      <c r="G39" s="5">
         <f t="shared" si="3"/>
-        <v>13.906660901440786</v>
-      </c>
-      <c r="G39" s="5">
-        <f t="shared" si="4"/>
         <v>10.860942728891811</v>
       </c>
       <c r="H39" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11.316433440804181</v>
       </c>
       <c r="I39" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>11.756045097146547</v>
       </c>
     </row>
@@ -9315,19 +9331,19 @@
         <v>3.7</v>
       </c>
       <c r="F40" s="5">
+        <f t="shared" si="2"/>
+        <v>15.038039594595038</v>
+      </c>
+      <c r="G40" s="5">
         <f t="shared" si="3"/>
-        <v>15.038039594595038</v>
-      </c>
-      <c r="G40" s="5">
-        <f t="shared" si="4"/>
         <v>11.77895195820525</v>
       </c>
       <c r="H40" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>12.272043326935018</v>
       </c>
       <c r="I40" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>12.747966703012008</v>
       </c>
     </row>
@@ -9336,19 +9352,19 @@
         <v>3.8</v>
       </c>
       <c r="F41" s="5">
+        <f t="shared" si="2"/>
+        <v>16.26495779407766</v>
+      </c>
+      <c r="G41" s="5">
         <f t="shared" si="3"/>
-        <v>16.26495779407766</v>
-      </c>
-      <c r="G41" s="5">
-        <f t="shared" si="4"/>
         <v>12.772764338053928</v>
       </c>
       <c r="H41" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>13.306604390706903</v>
       </c>
       <c r="I41" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>13.821878523968573</v>
       </c>
     </row>
@@ -9357,19 +9373,19 @@
         <v>3.9</v>
       </c>
       <c r="F42" s="5">
+        <f t="shared" si="2"/>
+        <v>17.595308801158495</v>
+      </c>
+      <c r="G42" s="5">
         <f t="shared" si="3"/>
-        <v>17.595308801158495</v>
-      </c>
-      <c r="G42" s="5">
-        <f t="shared" si="4"/>
         <v>13.848725242596149</v>
       </c>
       <c r="H42" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>14.426723397423975</v>
       </c>
       <c r="I42" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>14.984639718917514</v>
       </c>
     </row>
@@ -9378,19 +9394,19 @@
         <v>4</v>
       </c>
       <c r="F43" s="8">
+        <f t="shared" si="2"/>
+        <v>19.037646443678653</v>
+      </c>
+      <c r="G43" s="8">
         <f t="shared" si="3"/>
-        <v>19.037646443678653</v>
-      </c>
-      <c r="G43" s="8">
-        <f t="shared" si="4"/>
         <v>15.013706975270026</v>
       </c>
       <c r="H43" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>15.639555851130451</v>
       </c>
       <c r="I43" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>16.243679241685083</v>
       </c>
     </row>
@@ -9402,15 +9418,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{739A85FE-D60C-48BE-8832-92D27CAAF209}">
-  <dimension ref="E1:P43"/>
+  <dimension ref="B1:P43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E1" s="34"/>
       <c r="F1" s="35"/>
       <c r="G1" s="36" t="s">
@@ -9420,7 +9436,7 @@
       <c r="I1" s="35"/>
       <c r="J1" s="37"/>
     </row>
-    <row r="2" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E2" s="27" t="s">
         <v>7</v>
       </c>
@@ -9440,7 +9456,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
       <c r="E3" s="4">
         <v>0</v>
       </c>
@@ -9473,7 +9492,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E4" s="4">
         <v>0.1</v>
       </c>
@@ -9482,319 +9501,319 @@
         <v>2.0040416683415501</v>
       </c>
       <c r="G4" s="5">
-        <f t="shared" ref="G4" si="0">EXP(0.8*E4)-0.5*F4</f>
+        <f>EXP(0.8*E4)-0.5*F4</f>
         <v>8.1266233504183605E-2</v>
       </c>
       <c r="H4" s="5">
-        <f t="shared" ref="H4:H43" si="1">EXP(0.8*(E4+0.5*N$3))-0.5*(F4+0.5*N$3*G4)</f>
+        <f t="shared" ref="H4:H43" si="0">EXP(0.8*(E4+0.5*N$3))-0.5*(F4+0.5*N$3*G4)</f>
         <v>0.12344436157099614</v>
       </c>
       <c r="I4" s="32">
-        <f t="shared" ref="I4:I43" si="2">EXP(0.8*(E4+0.5*N$3))-(0.5*(F4+N$3*0.5*H4))</f>
+        <f t="shared" ref="I4:I43" si="1">EXP(0.8*(E4+0.5*N$3))-(0.5*(F4+N$3*0.5*H4))</f>
         <v>0.12238990836932584</v>
       </c>
       <c r="J4" s="30">
-        <f t="shared" ref="J4:J43" si="3">EXP(0.8*(E4+N$3))-0.5*(F4+N$3*I4)</f>
+        <f t="shared" ref="J4:J43" si="2">EXP(0.8*(E4+N$3))-0.5*(F4+N$3*I4)</f>
         <v>0.16537054140256902</v>
       </c>
     </row>
-    <row r="5" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E5" s="4">
         <v>0.2</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" ref="F5:F43" si="4">F4+((N$3/6)*(G4+2*H4+2*I4+J4))</f>
+        <f t="shared" ref="F5:F43" si="3">F4+((N$3/6)*(G4+2*H4+2*I4+J4))</f>
         <v>2.0163467569213398</v>
       </c>
       <c r="G5" s="5">
-        <f t="shared" ref="G5:G43" si="5">EXP(0.8*E5)-0.5*F5</f>
+        <f t="shared" ref="G5:G43" si="4">EXP(0.8*E5)-0.5*F5</f>
         <v>0.16533749253114038</v>
       </c>
       <c r="H5" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.20909594238622153</v>
       </c>
       <c r="I5" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.20800198113984436</v>
       </c>
       <c r="J5" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.2526756728037427</v>
       </c>
     </row>
-    <row r="6" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E6" s="4">
         <v>0.3</v>
       </c>
       <c r="F6" s="5">
+        <f t="shared" si="3"/>
+        <v>2.0372169071277901</v>
+      </c>
+      <c r="G6" s="5">
         <f t="shared" si="4"/>
-        <v>2.0372169071277901</v>
-      </c>
-      <c r="G6" s="5">
-        <f t="shared" si="5"/>
         <v>0.25264069675750966</v>
       </c>
       <c r="H6" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.29820534135460397</v>
       </c>
       <c r="I6" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.29706622523967674</v>
       </c>
       <c r="J6" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.34366599951007837</v>
       </c>
     </row>
-    <row r="7" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E7" s="4">
         <v>0.4</v>
       </c>
       <c r="F7" s="5">
+        <f t="shared" si="3"/>
+        <v>2.0669977376187258</v>
+      </c>
+      <c r="G7" s="5">
         <f t="shared" si="4"/>
-        <v>2.0669977376187258</v>
-      </c>
-      <c r="G7" s="5">
-        <f t="shared" si="5"/>
         <v>0.34362889552659426</v>
       </c>
       <c r="H7" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.39123982336281249</v>
       </c>
       <c r="I7" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.39004955016690701</v>
       </c>
       <c r="J7" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.43882335132356198</v>
       </c>
     </row>
-    <row r="8" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E8" s="4">
         <v>0.5</v>
       </c>
       <c r="F8" s="5">
+        <f t="shared" si="3"/>
+        <v>2.106081587517219</v>
+      </c>
+      <c r="G8" s="5">
         <f t="shared" si="4"/>
-        <v>2.106081587517219</v>
-      </c>
-      <c r="G8" s="5">
-        <f t="shared" si="5"/>
         <v>0.43878390388266086</v>
       </c>
       <c r="H8" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.48869682715566021</v>
       </c>
       <c r="I8" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.48744900407383529</v>
       </c>
       <c r="J8" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.53866115823059224</v>
       </c>
     </row>
-    <row r="9" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E9" s="4">
         <v>0.6</v>
       </c>
       <c r="F9" s="5">
+        <f t="shared" si="3"/>
+        <v>2.1549105329267562</v>
+      </c>
+      <c r="G9" s="5">
         <f t="shared" si="4"/>
-        <v>2.1549105329267562</v>
-      </c>
-      <c r="G9" s="5">
-        <f t="shared" si="5"/>
         <v>0.53861913572951536</v>
       </c>
       <c r="H9" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.59110690484227035</v>
       </c>
       <c r="I9" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.58979471061445166</v>
       </c>
       <c r="J9" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.64372749830200027</v>
       </c>
     </row>
-    <row r="10" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E10" s="4">
         <v>0.7</v>
       </c>
       <c r="F10" s="5">
+        <f t="shared" si="3"/>
+        <v>2.2139796973425057</v>
+      </c>
+      <c r="G10" s="5">
         <f t="shared" si="4"/>
-        <v>2.2139796973425057</v>
-      </c>
-      <c r="G10" s="5">
-        <f t="shared" si="5"/>
         <v>0.64368265162484817</v>
       </c>
       <c r="H10" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.69903688542863507</v>
       </c>
       <c r="I10" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.69765302958354036</v>
       </c>
       <c r="J10" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.75460837915452172</v>
       </c>
     </row>
-    <row r="11" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E11" s="4">
         <v>0.8</v>
       </c>
       <c r="F11" s="5">
+        <f t="shared" si="3"/>
+        <v>2.283840878355901</v>
+      </c>
+      <c r="G11" s="5">
         <f t="shared" si="4"/>
-        <v>2.283840878355901</v>
-      </c>
-      <c r="G11" s="5">
-        <f t="shared" si="5"/>
         <v>0.75456044012700119</v>
       </c>
       <c r="H11" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.81309328204932241</v>
       </c>
       <c r="I11" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.81162996100126428</v>
       </c>
       <c r="J11" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.8719312734158744</v>
       </c>
     </row>
-    <row r="12" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E12" s="4">
         <v>0.9</v>
       </c>
       <c r="F12" s="5">
+        <f t="shared" si="3"/>
+        <v>2.365106515016635</v>
+      </c>
+      <c r="G12" s="5">
         <f t="shared" si="4"/>
-        <v>2.365106515016635</v>
-      </c>
-      <c r="G12" s="5">
-        <f t="shared" si="5"/>
         <v>0.87187995313557054</v>
       </c>
       <c r="H12" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.93392596416011209</v>
       </c>
       <c r="I12" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.9323748138844985</v>
       </c>
       <c r="J12" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.99636893028992546</v>
       </c>
     </row>
-    <row r="13" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E13" s="4">
         <v>1</v>
       </c>
       <c r="F13" s="5">
+        <f t="shared" si="3"/>
+        <v>2.4584540223418805</v>
+      </c>
+      <c r="G13" s="5">
         <f t="shared" si="4"/>
-        <v>2.4584540223418805</v>
-      </c>
-      <c r="G13" s="5">
-        <f t="shared" si="5"/>
         <v>0.99631391732152763</v>
       </c>
       <c r="H13" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.0622321176771135</v>
       </c>
       <c r="I13" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.0605841626682238</v>
       </c>
       <c r="J13" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.1286434871128588</v>
       </c>
     </row>
-    <row r="14" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E14" s="4">
         <v>1.1000000000000001</v>
       </c>
       <c r="F14" s="5">
+        <f t="shared" si="3"/>
+        <v>2.5646305217606313</v>
+      </c>
+      <c r="G14" s="5">
         <f t="shared" si="4"/>
-        <v>2.5646305217606313</v>
-      </c>
-      <c r="G14" s="5">
-        <f t="shared" si="5"/>
         <v>1.1285844455368945</v>
       </c>
       <c r="H14" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.19876051791756</v>
       </c>
       <c r="I14" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.1970061161080432</v>
       </c>
       <c r="J14" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.2695309067374005</v>
       </c>
     </row>
-    <row r="15" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E15" s="4">
         <v>1.2</v>
       </c>
       <c r="F15" s="5">
+        <f t="shared" si="3"/>
+        <v>2.6844579987660562</v>
+      </c>
+      <c r="G15" s="5">
         <f t="shared" si="4"/>
-        <v>2.6844579987660562</v>
-      </c>
-      <c r="G15" s="5">
-        <f t="shared" si="5"/>
         <v>1.2694674740400897</v>
       </c>
       <c r="H15" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.3443161422250147</v>
       </c>
       <c r="I15" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.3424449255203916</v>
       </c>
       <c r="J15" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.4198657686925122</v>
       </c>
     </row>
-    <row r="16" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E16" s="4">
         <v>1.3</v>
       </c>
       <c r="F16" s="5">
+        <f t="shared" si="3"/>
+        <v>2.8188389217364462</v>
+      </c>
+      <c r="G16" s="5">
         <f t="shared" si="4"/>
-        <v>2.8188389217364462</v>
-      </c>
-      <c r="G16" s="5">
-        <f t="shared" si="5"/>
         <v>1.4197975534833367</v>
       </c>
       <c r="H16" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.4997651513602177</v>
       </c>
       <c r="I16" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.4977659614132957</v>
       </c>
       <c r="J16" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.5805464443541144</v>
       </c>
     </row>
@@ -9803,23 +9822,23 @@
         <v>1.4</v>
       </c>
       <c r="F17" s="5">
+        <f t="shared" si="3"/>
+        <v>2.968762358792854</v>
+      </c>
+      <c r="G17" s="5">
         <f t="shared" si="4"/>
-        <v>2.968762358792854</v>
-      </c>
-      <c r="G17" s="5">
-        <f t="shared" si="5"/>
         <v>1.5804730238965745</v>
       </c>
       <c r="H17" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.6660402711223432</v>
       </c>
       <c r="I17" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.6639010899416988</v>
       </c>
       <c r="J17" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.7525406888430362</v>
       </c>
     </row>
@@ -9828,23 +9847,23 @@
         <v>1.5</v>
       </c>
       <c r="F18" s="5">
+        <f t="shared" si="3"/>
+        <v>3.1353106327073155</v>
+      </c>
+      <c r="G18" s="5">
         <f t="shared" si="4"/>
-        <v>3.1353106327073155</v>
-      </c>
-      <c r="G18" s="5">
-        <f t="shared" si="5"/>
         <v>1.7524616063828904</v>
       </c>
       <c r="H18" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.8441466082494464</v>
       </c>
       <c r="I18" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.8418544832027826</v>
       </c>
       <c r="J18" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.9368916850554858</v>
       </c>
     </row>
@@ -9853,23 +9872,23 @@
         <v>1.6</v>
       </c>
       <c r="F19" s="5">
+        <f t="shared" si="3"/>
+        <v>3.319666557279696</v>
+      </c>
+      <c r="G19" s="5">
         <f t="shared" si="4"/>
-        <v>3.319666557279696</v>
-      </c>
-      <c r="G19" s="5">
-        <f t="shared" si="5"/>
         <v>1.9368064469294346</v>
       </c>
       <c r="H19" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.0351679374477798</v>
       </c>
       <c r="I19" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.0327089001848213</v>
       </c>
       <c r="J19" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.1347245781461268</v>
       </c>
     </row>
@@ -9878,23 +9897,23 @@
         <v>1.7</v>
       </c>
       <c r="F20" s="5">
+        <f t="shared" si="3"/>
+        <v>3.5231213022853751</v>
+      </c>
+      <c r="G20" s="5">
         <f t="shared" si="4"/>
-        <v>3.5231213022853751</v>
-      </c>
-      <c r="G20" s="5">
-        <f t="shared" si="5"/>
         <v>2.1346326506525273</v>
       </c>
       <c r="H20" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.2402734994356748</v>
       </c>
       <c r="I20" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.2376324782160957</v>
       </c>
       <c r="J20" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.3472535419430609</v>
       </c>
     </row>
@@ -9903,23 +9922,23 @@
         <v>1.8</v>
       </c>
       <c r="F21" s="5">
+        <f t="shared" si="3"/>
+        <v>3.7470829380836941</v>
+      </c>
+      <c r="G21" s="5">
         <f t="shared" si="4"/>
-        <v>3.7470829380836941</v>
-      </c>
-      <c r="G21" s="5">
-        <f t="shared" si="5"/>
         <v>2.3471543479547061</v>
       </c>
       <c r="H21" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.4607253531780433</v>
       </c>
       <c r="I21" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.4578860780474598</v>
       </c>
       <c r="J21" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.5757894221979405</v>
       </c>
     </row>
@@ -9928,23 +9947,23 @@
         <v>1.9</v>
       </c>
       <c r="F22" s="5">
+        <f t="shared" si="3"/>
+        <v>3.9930857152937551</v>
+      </c>
+      <c r="G22" s="5">
         <f t="shared" si="4"/>
-        <v>3.9930857152937551</v>
-      </c>
-      <c r="G22" s="5">
-        <f t="shared" si="5"/>
         <v>2.5756823374952811</v>
       </c>
       <c r="H22" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.6978863290535946</v>
       </c>
       <c r="I22" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.6948312292646368</v>
       </c>
       <c r="J22" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.8217480052850057</v>
       </c>
     </row>
@@ -9953,23 +9972,23 @@
         <v>2</v>
       </c>
       <c r="F23" s="5">
+        <f t="shared" si="3"/>
+        <v>4.2628001396173678</v>
+      </c>
+      <c r="G23" s="5">
         <f t="shared" si="4"/>
-        <v>4.2628001396173678</v>
-      </c>
-      <c r="G23" s="5">
-        <f t="shared" si="5"/>
         <v>2.821632354586431</v>
       </c>
       <c r="H23" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.9532286335613356</v>
       </c>
       <c r="I23" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.949938726586963</v>
       </c>
       <c r="J23" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3.0866589649839433</v>
       </c>
     </row>
@@ -9978,23 +9997,23 @@
         <v>2.1</v>
       </c>
       <c r="F24" s="5">
+        <f t="shared" si="3"/>
+        <v>4.5580439069484839</v>
+      </c>
+      <c r="G24" s="5">
         <f t="shared" si="4"/>
-        <v>4.5580439069484839</v>
-      </c>
-      <c r="G24" s="5">
-        <f t="shared" si="5"/>
         <v>3.0865340176477334</v>
       </c>
       <c r="H24" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.2283431603606183</v>
       </c>
       <c r="I24" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.2247979317927964</v>
       </c>
       <c r="J24" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3.3721755443387078</v>
       </c>
     </row>
@@ -10003,23 +10022,23 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="F25" s="5">
+        <f t="shared" si="3"/>
+        <v>4.8807937693867052</v>
+      </c>
+      <c r="G25" s="5">
         <f t="shared" si="4"/>
-        <v>4.8807937693867052</v>
-      </c>
-      <c r="G25" s="5">
-        <f t="shared" si="5"/>
         <v>3.3720405097092372</v>
       </c>
       <c r="H25" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.5249495669768631</v>
       </c>
       <c r="I25" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.5211268405451723</v>
       </c>
       <c r="J25" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3.6800850343060478</v>
       </c>
     </row>
@@ -10028,23 +10047,23 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="F26" s="5">
+        <f t="shared" si="3"/>
+        <v>5.2331984087043608</v>
+      </c>
+      <c r="G26" s="5">
         <f t="shared" si="4"/>
-        <v>5.2331984087043608</v>
-      </c>
-      <c r="G26" s="5">
-        <f t="shared" si="5"/>
         <v>3.6799390566744759</v>
       </c>
       <c r="H26" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.8449071814221059</v>
       </c>
       <c r="I26" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.8407829783034151</v>
       </c>
       <c r="J26" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4.0123201160233979</v>
       </c>
     </row>
@@ -10053,23 +10072,23 @@
         <v>2.4</v>
       </c>
       <c r="F27" s="5">
+        <f t="shared" si="3"/>
+        <v>5.6175924002401763</v>
+      </c>
+      <c r="G27" s="5">
         <f t="shared" si="4"/>
-        <v>5.6175924002401763</v>
-      </c>
-      <c r="G27" s="5">
-        <f t="shared" si="5"/>
         <v>4.0121622691706609</v>
       </c>
       <c r="H27" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4.190226808307278</v>
       </c>
       <c r="I27" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.1857751948288628</v>
       </c>
       <c r="J27" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4.3709711390691197</v>
       </c>
     </row>
@@ -10078,23 +10097,23 @@
         <v>2.5</v>
       </c>
       <c r="F28" s="5">
+        <f t="shared" si="3"/>
+        <v>6.0365113571487106</v>
+      </c>
+      <c r="G28" s="5">
         <f t="shared" si="4"/>
-        <v>6.0365113571487106</v>
-      </c>
-      <c r="G28" s="5">
-        <f t="shared" si="5"/>
         <v>4.3708004203562947</v>
       </c>
       <c r="H28" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4.5630835097957352</v>
       </c>
       <c r="I28" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.5582764325597491</v>
       </c>
       <c r="J28" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4.7582994140940107</v>
       </c>
     </row>
@@ -10103,23 +10122,23 @@
         <v>2.6</v>
       </c>
       <c r="F29" s="5">
+        <f t="shared" si="3"/>
+        <v>6.4927083524680649</v>
+      </c>
+      <c r="G29" s="5">
         <f t="shared" si="4"/>
-        <v>6.4927083524680649</v>
-      </c>
-      <c r="G29" s="5">
-        <f t="shared" si="5"/>
         <v>4.7581147380623214</v>
       </c>
       <c r="H29" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4.965830443002103</v>
       </c>
       <c r="I29" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.9606375503786078</v>
       </c>
       <c r="J29" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.1767516047104927</v>
       </c>
     </row>
@@ -10128,23 +10147,23 @@
         <v>2.7</v>
       </c>
       <c r="F30" s="5">
+        <f t="shared" si="3"/>
+        <v>6.9891717246269689</v>
+      </c>
+      <c r="G30" s="5">
         <f t="shared" si="4"/>
-        <v>6.9891717246269689</v>
-      </c>
-      <c r="G30" s="5">
-        <f t="shared" si="5"/>
         <v>5.1765517961499716</v>
       </c>
       <c r="H30" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.4010138422168881</v>
       </c>
       <c r="I30" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.3954022910652153</v>
       </c>
       <c r="J30" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.6289753105760383</v>
       </c>
     </row>
@@ -10153,23 +10172,23 @@
         <v>2.8</v>
       </c>
       <c r="F31" s="5">
+        <f t="shared" si="3"/>
+        <v>7.5291443808484724</v>
+      </c>
+      <c r="G31" s="5">
         <f t="shared" si="4"/>
-        <v>7.5291443808484724</v>
-      </c>
-      <c r="G31" s="5">
-        <f t="shared" si="5"/>
         <v>5.6287590970185448</v>
       </c>
       <c r="H31" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.8713892416792035</v>
       </c>
       <c r="I31" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.8653234880626872</v>
       </c>
       <c r="J31" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.1178359412459624</v>
       </c>
     </row>
@@ -10178,23 +10197,23 @@
         <v>2.9</v>
       </c>
       <c r="F32" s="5">
+        <f t="shared" si="3"/>
+        <v>8.1161447224776104</v>
+      </c>
+      <c r="G32" s="5">
         <f t="shared" si="4"/>
-        <v>8.1161447224776104</v>
-      </c>
-      <c r="G32" s="5">
-        <f t="shared" si="5"/>
         <v>6.1176019448345276</v>
       </c>
       <c r="H32" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.3799390425741116</v>
       </c>
       <c r="I32" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.373380615130622</v>
       </c>
       <c r="J32" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.6464349886462681</v>
       </c>
     </row>
@@ -10203,23 +10222,23 @@
         <v>3</v>
       </c>
       <c r="F33" s="5">
+        <f t="shared" si="3"/>
+        <v>8.7539893266257813</v>
+      </c>
+      <c r="G33" s="5">
         <f t="shared" si="4"/>
-        <v>8.7539893266257813</v>
-      </c>
-      <c r="G33" s="5">
-        <f t="shared" si="5"/>
         <v>6.6461817173287141</v>
       </c>
       <c r="H33" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.9298915365487241</v>
       </c>
       <c r="I33" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.9227987910682245</v>
       </c>
       <c r="J33" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7.2181298149828068</v>
       </c>
     </row>
@@ -10228,23 +10247,23 @@
         <v>3.1</v>
       </c>
       <c r="F34" s="5">
+        <f t="shared" si="3"/>
+        <v>9.446817529751538</v>
+      </c>
+      <c r="G34" s="5">
         <f t="shared" si="4"/>
-        <v>9.446817529751538</v>
-      </c>
-      <c r="G34" s="5">
-        <f t="shared" si="5"/>
         <v>7.2178556529733395</v>
       </c>
       <c r="H34" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.5247415073774411</v>
       </c>
       <c r="I34" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7.5170693610173389</v>
       </c>
       <c r="J34" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7.8365550826164476</v>
       </c>
     </row>
@@ -10253,23 +10272,23 @@
         <v>3.2</v>
       </c>
       <c r="F35" s="5">
+        <f t="shared" si="3"/>
+        <v>10.19911807095786</v>
+      </c>
+      <c r="G35" s="5">
         <f t="shared" si="4"/>
-        <v>10.19911807095786</v>
-      </c>
-      <c r="G35" s="5">
-        <f t="shared" si="5"/>
         <v>7.8362582800641531</v>
       </c>
       <c r="H35" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8.1682725425211586</v>
       </c>
       <c r="I35" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8.1599721859597327</v>
       </c>
       <c r="J35" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>8.5056459629567041</v>
       </c>
     </row>
@@ -10278,23 +10297,23 @@
         <v>3.3</v>
       </c>
       <c r="F36" s="5">
+        <f t="shared" si="3"/>
+        <v>11.015757965957571</v>
+      </c>
+      <c r="G36" s="5">
         <f t="shared" si="4"/>
-        <v>11.015757965957571</v>
-      </c>
-      <c r="G36" s="5">
-        <f t="shared" si="5"/>
         <v>8.5053246247548309</v>
       </c>
       <c r="H36" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8.8645811972831297</v>
       </c>
       <c r="I36" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8.8555997829699216</v>
       </c>
       <c r="J36" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.2296632728266168</v>
       </c>
     </row>
@@ -10303,23 +10322,23 @@
         <v>3.4</v>
       </c>
       <c r="F37" s="5">
+        <f t="shared" si="3"/>
+        <v>11.902013796925697</v>
+      </c>
+      <c r="G37" s="5">
         <f t="shared" si="4"/>
-        <v>11.902013796925697</v>
-      </c>
-      <c r="G37" s="5">
-        <f t="shared" si="5"/>
         <v>9.2293153464910507</v>
       </c>
       <c r="H37" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.6181031661352705</v>
       </c>
       <c r="I37" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9.6083834706441635</v>
       </c>
       <c r="J37" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10.013220699101998</v>
       </c>
     </row>
@@ -10328,23 +10347,23 @@
         <v>3.5</v>
       </c>
       <c r="F38" s="5">
+        <f t="shared" si="3"/>
+        <v>12.863605618911562</v>
+      </c>
+      <c r="G38" s="5">
         <f t="shared" si="4"/>
-        <v>12.863605618911562</v>
-      </c>
-      <c r="G38" s="5">
-        <f t="shared" si="5"/>
         <v>10.012843961641273</v>
       </c>
       <c r="H38" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10.433641628649063</v>
       </c>
       <c r="I38" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10.423121686973868</v>
       </c>
       <c r="J38" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10.86131428580773</v>
       </c>
     </row>
@@ -10353,23 +10372,23 @@
         <v>3.6</v>
       </c>
       <c r="F39" s="5">
+        <f t="shared" si="3"/>
+        <v>13.906733700223143</v>
+      </c>
+      <c r="G39" s="5">
         <f t="shared" si="4"/>
-        <v>13.906733700223143</v>
-      </c>
-      <c r="G39" s="5">
-        <f t="shared" si="5"/>
         <v>10.860906329500633</v>
       </c>
       <c r="H39" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11.316397951397782</v>
       </c>
       <c r="I39" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>11.305010660850353</v>
       </c>
       <c r="J39" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>11.77935437234868</v>
       </c>
     </row>
@@ -10378,23 +10397,23 @@
         <v>3.7</v>
       </c>
       <c r="F40" s="5">
+        <f t="shared" si="3"/>
+        <v>15.038118332328903</v>
+      </c>
+      <c r="G40" s="5">
         <f t="shared" si="4"/>
-        <v>15.038118332328903</v>
-      </c>
-      <c r="G40" s="5">
-        <f t="shared" si="5"/>
         <v>11.778912589338317</v>
       </c>
       <c r="H40" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>12.272004942289758</v>
       </c>
       <c r="I40" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>12.259677633465973</v>
       </c>
       <c r="J40" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>12.773200187255014</v>
       </c>
     </row>
@@ -10403,23 +10422,23 @@
         <v>3.8</v>
       </c>
       <c r="F41" s="5">
+        <f t="shared" si="3"/>
+        <v>16.265042964463984</v>
+      </c>
+      <c r="G41" s="5">
         <f t="shared" si="4"/>
-        <v>16.265042964463984</v>
-      </c>
-      <c r="G41" s="5">
-        <f t="shared" si="5"/>
         <v>12.772721752860766</v>
       </c>
       <c r="H41" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>13.306562870143569</v>
       </c>
       <c r="I41" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>13.2932168422115</v>
       </c>
       <c r="J41" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>13.849197318832831</v>
       </c>
     </row>
@@ -10428,23 +10447,23 @@
         <v>3.9</v>
       </c>
       <c r="F42" s="5">
+        <f t="shared" si="3"/>
+        <v>17.595400939404044</v>
+      </c>
+      <c r="G42" s="5">
         <f t="shared" si="4"/>
-        <v>17.595400939404044</v>
-      </c>
-      <c r="G42" s="5">
-        <f t="shared" si="5"/>
         <v>13.848679173473375</v>
       </c>
       <c r="H42" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>14.42667848002927</v>
       </c>
       <c r="I42" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>14.412228497365373</v>
       </c>
       <c r="J42" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>15.014218302539062</v>
       </c>
     </row>
@@ -10453,23 +10472,23 @@
         <v>4</v>
       </c>
       <c r="F43" s="8">
+        <f t="shared" si="3"/>
+        <v>19.037746129917405</v>
+      </c>
+      <c r="G43" s="8">
         <f t="shared" si="4"/>
-        <v>19.037746129917405</v>
-      </c>
-      <c r="G43" s="8">
-        <f t="shared" si="5"/>
         <v>15.01365713215065</v>
       </c>
       <c r="H43" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>15.639507254089059</v>
       </c>
       <c r="I43" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>15.623861001040598</v>
       </c>
       <c r="J43" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>16.275706584863222</v>
       </c>
     </row>
@@ -10481,10 +10500,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44105454-2945-4042-9D01-28470E5E4353}">
-  <dimension ref="F4"/>
+  <dimension ref="F4:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10494,6 +10513,16 @@
         <v>20</v>
       </c>
     </row>
+    <row r="5" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
